--- a/sale_inv.xlsx
+++ b/sale_inv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="176">
   <si>
     <t>GRADE</t>
   </si>
@@ -524,6 +524,24 @@
   </si>
   <si>
     <t>M/S.ASHIRVAD PLY</t>
+  </si>
+  <si>
+    <t>24.02.21</t>
+  </si>
+  <si>
+    <t>F-145</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>F-146</t>
+  </si>
+  <si>
+    <t>02.03.21</t>
   </si>
 </sst>
 </file>
@@ -1433,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J124" sqref="J123:J124"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3692,7 +3710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -3712,7 +3730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -3732,7 +3750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -3752,7 +3770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -3792,7 +3810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -3812,7 +3830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>71</v>
       </c>
@@ -3832,7 +3850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>71</v>
       </c>
@@ -3852,7 +3870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>71</v>
       </c>
@@ -3872,7 +3890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>71</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:6">
       <c r="A123" s="7" t="s">
         <v>72</v>
       </c>
@@ -3912,7 +3930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:6">
       <c r="A124" s="7" t="s">
         <v>73</v>
       </c>
@@ -3932,7 +3950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>75</v>
       </c>
@@ -3952,7 +3970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>75</v>
       </c>
@@ -3972,7 +3990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>75</v>
       </c>
@@ -3991,11 +4009,8 @@
       <c r="F127" t="s">
         <v>42</v>
       </c>
-      <c r="G127" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>75</v>
       </c>
@@ -5788,6 +5803,149 @@
       </c>
       <c r="F210" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B211" t="s">
+        <v>171</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211">
+        <v>1000</v>
+      </c>
+      <c r="F211" t="s">
+        <v>42</v>
+      </c>
+      <c r="G211" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212" t="s">
+        <v>171</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E212">
+        <v>1000</v>
+      </c>
+      <c r="F212" t="s">
+        <v>42</v>
+      </c>
+      <c r="G212" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B213" t="s">
+        <v>171</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E213">
+        <v>500</v>
+      </c>
+      <c r="F213" t="s">
+        <v>42</v>
+      </c>
+      <c r="G213" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B214" t="s">
+        <v>171</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214">
+        <v>200</v>
+      </c>
+      <c r="F214" t="s">
+        <v>42</v>
+      </c>
+      <c r="G214" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B215" t="s">
+        <v>174</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E215">
+        <v>600</v>
+      </c>
+      <c r="F215" t="s">
+        <v>42</v>
+      </c>
+      <c r="G215" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B216" t="s">
+        <v>174</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E216">
+        <v>200</v>
+      </c>
+      <c r="F216" t="s">
+        <v>42</v>
+      </c>
+      <c r="G216" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="F219" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
